--- a/factor/vehicle_fuel_ratio_v1.xlsx
+++ b/factor/vehicle_fuel_ratio_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dense_traffic_emi\factor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\emi_calculation\factor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59671F26-E21C-4981-B288-01A443CFF9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CE1334-0371-44EF-8477-473800C3ED7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98CCFFB9-50A1-432A-A6E9-06B1E1B961D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98CCFFB9-50A1-432A-A6E9-06B1E1B961D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>fuel</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>07_SpecialVehicle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNG</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -188,6 +192,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -197,7 +212,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -220,6 +235,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -560,7 +581,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -615,7 +636,9 @@
       <c r="D2" s="5">
         <v>1.1987654320987653E-2</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
       <c r="F2" s="6">
         <v>1.0250940951058144E-2</v>
       </c>
@@ -639,7 +662,9 @@
       <c r="D3" s="5">
         <v>0.8901296296296296</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>0.87</v>
+      </c>
       <c r="F3" s="7">
         <v>0.92901229592058188</v>
       </c>
@@ -663,7 +688,9 @@
       <c r="D4" s="5">
         <v>9.7882716049382715E-2</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
       <c r="F4" s="7">
         <v>6.0736763128359988E-2</v>
       </c>
@@ -685,7 +712,9 @@
         <v>0</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
       <c r="F5" s="5">
         <v>0</v>
       </c>
@@ -697,7 +726,30 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="F6" s="1"/>
+      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="F7" s="1"/>
